--- a/src/main/resources/static/file/sms/sms_file_upload_sample.xlsx
+++ b/src/main/resources/static/file/sms/sms_file_upload_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slhge\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC24477-04B1-486D-A035-66BB8DB4C978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD4CB55-2D75-4D3D-A805-B99175B9B88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,293 +45,449 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>상시신청
-해상엔진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테크니션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선내기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선외기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-FRP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>레저보트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테크니션
-해상엔진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자가정비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선외기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해상엔진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자가정비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선내기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해상엔진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자가정비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세일요트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반회원
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래 항목 중 택(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+일반회원
 관심사용자
-교육생(단기)
-교육생(정규)</t>
+교육생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>택</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+상시신청
+해상엔진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테크니션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선내기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선외기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+FRP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레저보트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테크니션
+해상엔진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자가정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선외기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해상엔진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자가정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선내기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해상엔진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자가정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세일요트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -382,15 +538,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,10 +606,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,9 +630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +670,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -597,7 +776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,7 +918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,7 +929,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,13 +950,13 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="89.25">
+    <row r="2" spans="1:5" ht="110.25">
       <c r="A2" s="5"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -791,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
